--- a/PolicyEffectiveness/0-DayLag_HawaiiPolicy.xlsx
+++ b/PolicyEffectiveness/0-DayLag_HawaiiPolicy.xlsx
@@ -1895,7 +1895,7 @@
         <v>33</v>
       </c>
       <c r="B18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1951,7 +1951,7 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>35</v>
       </c>
       <c r="B20">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         <v>36</v>
       </c>
       <c r="B21">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2119,7 +2119,7 @@
         <v>37</v>
       </c>
       <c r="B22">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>38</v>
       </c>
       <c r="B23">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2199,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2231,7 +2231,7 @@
         <v>39</v>
       </c>
       <c r="B24">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>40</v>
       </c>
       <c r="B25">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2343,7 +2343,7 @@
         <v>41</v>
       </c>
       <c r="B26">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>0.8</v>
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K26">
         <v>0.5</v>
@@ -2399,7 +2399,7 @@
         <v>42</v>
       </c>
       <c r="B27">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>0.8</v>
@@ -2411,19 +2411,19 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K27">
         <v>0.5</v>
@@ -2455,7 +2455,7 @@
         <v>43</v>
       </c>
       <c r="B28">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>0.8</v>
@@ -2467,19 +2467,19 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K28">
         <v>0.5</v>
@@ -2511,7 +2511,7 @@
         <v>44</v>
       </c>
       <c r="B29">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>0.8</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K29">
         <v>0.5</v>
@@ -2567,7 +2567,7 @@
         <v>45</v>
       </c>
       <c r="B30">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>0.8</v>
@@ -2579,19 +2579,19 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K30">
         <v>0.5</v>
@@ -2623,7 +2623,7 @@
         <v>46</v>
       </c>
       <c r="B31">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>0.8</v>
@@ -2635,19 +2635,19 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K31">
         <v>0.5</v>
@@ -2679,7 +2679,7 @@
         <v>47</v>
       </c>
       <c r="B32">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>0.8</v>
@@ -2691,19 +2691,19 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K32">
         <v>0.5</v>
@@ -2735,7 +2735,7 @@
         <v>48</v>
       </c>
       <c r="B33">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>0.8</v>
@@ -2747,19 +2747,19 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K33">
         <v>0.5</v>
@@ -2791,7 +2791,7 @@
         <v>49</v>
       </c>
       <c r="B34">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>0.8</v>
@@ -2803,19 +2803,19 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K34">
         <v>0.5</v>
@@ -2847,7 +2847,7 @@
         <v>50</v>
       </c>
       <c r="B35">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>0.8</v>
@@ -2859,19 +2859,19 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K35">
         <v>0.5</v>
@@ -2903,7 +2903,7 @@
         <v>51</v>
       </c>
       <c r="B36">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>0.8</v>
@@ -2915,19 +2915,19 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K36">
         <v>0.5</v>
@@ -2959,7 +2959,7 @@
         <v>52</v>
       </c>
       <c r="B37">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>0.8</v>
@@ -2971,19 +2971,19 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K37">
         <v>0.5</v>
@@ -3015,7 +3015,7 @@
         <v>53</v>
       </c>
       <c r="B38">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>0.8</v>
@@ -3027,19 +3027,19 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K38">
         <v>0.5</v>
@@ -3071,7 +3071,7 @@
         <v>54</v>
       </c>
       <c r="B39">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>0.8</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K39">
         <v>0.5</v>
@@ -3127,7 +3127,7 @@
         <v>55</v>
       </c>
       <c r="B40">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>0.8</v>
@@ -3139,19 +3139,19 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K40">
         <v>0.5</v>
@@ -3183,7 +3183,7 @@
         <v>56</v>
       </c>
       <c r="B41">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>0.8</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K41">
         <v>0.5</v>
@@ -3239,7 +3239,7 @@
         <v>57</v>
       </c>
       <c r="B42">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>0.8</v>
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K42">
         <v>0.5</v>
@@ -3295,7 +3295,7 @@
         <v>58</v>
       </c>
       <c r="B43">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>0.8</v>
@@ -3307,19 +3307,19 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K43">
         <v>0.5</v>
@@ -3351,7 +3351,7 @@
         <v>59</v>
       </c>
       <c r="B44">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>0.8</v>
@@ -3363,19 +3363,19 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K44">
         <v>0.5</v>
@@ -3407,7 +3407,7 @@
         <v>60</v>
       </c>
       <c r="B45">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>0.8</v>
@@ -3419,19 +3419,19 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K45">
         <v>0.5</v>
@@ -3463,7 +3463,7 @@
         <v>61</v>
       </c>
       <c r="B46">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>0.8</v>
@@ -3475,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K46">
         <v>0.5</v>
@@ -3519,7 +3519,7 @@
         <v>62</v>
       </c>
       <c r="B47">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>0.8</v>
@@ -3531,19 +3531,19 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K47">
         <v>0.5</v>
@@ -3575,7 +3575,7 @@
         <v>63</v>
       </c>
       <c r="B48">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>0.8</v>
@@ -3587,19 +3587,19 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K48">
         <v>0.5</v>
@@ -3631,7 +3631,7 @@
         <v>64</v>
       </c>
       <c r="B49">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>0.8</v>
@@ -3643,19 +3643,19 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0.4444444444444444</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -3687,7 +3687,7 @@
         <v>65</v>
       </c>
       <c r="B50">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>0.8</v>
@@ -3699,19 +3699,19 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0.4444444444444444</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -3743,7 +3743,7 @@
         <v>66</v>
       </c>
       <c r="B51">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>0.8</v>
@@ -3755,19 +3755,19 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0.4444444444444444</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -3799,7 +3799,7 @@
         <v>67</v>
       </c>
       <c r="B52">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>0.8</v>
@@ -3811,19 +3811,19 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0.4444444444444444</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -3855,7 +3855,7 @@
         <v>68</v>
       </c>
       <c r="B53">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>0.8</v>
@@ -3867,19 +3867,19 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0.4444444444444444</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -3911,7 +3911,7 @@
         <v>69</v>
       </c>
       <c r="B54">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>0.8</v>
@@ -3923,19 +3923,19 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0.4444444444444444</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -3967,7 +3967,7 @@
         <v>70</v>
       </c>
       <c r="B55">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>0.8</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0.4444444444444444</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -4023,7 +4023,7 @@
         <v>71</v>
       </c>
       <c r="B56">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>0.8</v>
@@ -4035,19 +4035,19 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0.4444444444444444</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -4079,7 +4079,7 @@
         <v>72</v>
       </c>
       <c r="B57">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>0.8</v>
@@ -4091,19 +4091,19 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0.4444444444444444</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -4135,7 +4135,7 @@
         <v>73</v>
       </c>
       <c r="B58">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <v>0.8</v>
@@ -4147,19 +4147,19 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K58">
         <v>0.5</v>
@@ -4191,7 +4191,7 @@
         <v>74</v>
       </c>
       <c r="B59">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>0.8</v>
@@ -4203,19 +4203,19 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K59">
         <v>0.5</v>
@@ -4247,7 +4247,7 @@
         <v>75</v>
       </c>
       <c r="B60">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>0.8</v>
@@ -4259,19 +4259,19 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K60">
         <v>0.5</v>
@@ -4303,7 +4303,7 @@
         <v>76</v>
       </c>
       <c r="B61">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>0.8</v>
@@ -4315,19 +4315,19 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K61">
         <v>0.5</v>
@@ -4359,7 +4359,7 @@
         <v>77</v>
       </c>
       <c r="B62">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>0.8</v>
@@ -4371,19 +4371,19 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K62">
         <v>0.5</v>
@@ -4415,7 +4415,7 @@
         <v>78</v>
       </c>
       <c r="B63">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>0.8</v>
@@ -4427,19 +4427,19 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K63">
         <v>0.5</v>
@@ -4471,7 +4471,7 @@
         <v>79</v>
       </c>
       <c r="B64">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>0.8</v>
@@ -4483,19 +4483,19 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G64">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K64">
         <v>0.5</v>
@@ -4527,7 +4527,7 @@
         <v>80</v>
       </c>
       <c r="B65">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>0.8</v>
@@ -4539,19 +4539,19 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K65">
         <v>0.5</v>
@@ -4583,7 +4583,7 @@
         <v>81</v>
       </c>
       <c r="B66">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C66">
         <v>0.8</v>
@@ -4595,19 +4595,19 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K66">
         <v>0.5</v>
@@ -4639,7 +4639,7 @@
         <v>82</v>
       </c>
       <c r="B67">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C67">
         <v>0.8</v>
@@ -4651,19 +4651,19 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K67">
         <v>0.5</v>
@@ -4695,7 +4695,7 @@
         <v>83</v>
       </c>
       <c r="B68">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C68">
         <v>0.8</v>
@@ -4707,19 +4707,19 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G68">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K68">
         <v>0.5</v>
@@ -4751,7 +4751,7 @@
         <v>84</v>
       </c>
       <c r="B69">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C69">
         <v>0.8</v>
@@ -4763,19 +4763,19 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K69">
         <v>0.5</v>
@@ -4807,7 +4807,7 @@
         <v>85</v>
       </c>
       <c r="B70">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C70">
         <v>0.6</v>
@@ -4819,19 +4819,19 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G70">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K70">
         <v>0.5</v>
@@ -4863,7 +4863,7 @@
         <v>86</v>
       </c>
       <c r="B71">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>0.6</v>
@@ -4875,19 +4875,19 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G71">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K71">
         <v>0.5</v>
@@ -4919,7 +4919,7 @@
         <v>87</v>
       </c>
       <c r="B72">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C72">
         <v>0.6</v>
@@ -4931,19 +4931,19 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K72">
         <v>0.5</v>
@@ -4975,7 +4975,7 @@
         <v>88</v>
       </c>
       <c r="B73">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>0.6</v>
@@ -4987,19 +4987,19 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K73">
         <v>0.5</v>
@@ -5031,7 +5031,7 @@
         <v>89</v>
       </c>
       <c r="B74">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C74">
         <v>0.6</v>
@@ -5043,19 +5043,19 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K74">
         <v>0.5</v>
@@ -5087,7 +5087,7 @@
         <v>90</v>
       </c>
       <c r="B75">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C75">
         <v>0.6</v>
@@ -5099,19 +5099,19 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K75">
         <v>0.5</v>
@@ -5143,7 +5143,7 @@
         <v>91</v>
       </c>
       <c r="B76">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C76">
         <v>0.6</v>
@@ -5155,19 +5155,19 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K76">
         <v>0.5</v>
@@ -5199,7 +5199,7 @@
         <v>92</v>
       </c>
       <c r="B77">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>0.6</v>
@@ -5211,19 +5211,19 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K77">
         <v>0.5</v>
@@ -5255,7 +5255,7 @@
         <v>93</v>
       </c>
       <c r="B78">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C78">
         <v>0.6</v>
@@ -5267,19 +5267,19 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K78">
         <v>0.5</v>
@@ -5311,7 +5311,7 @@
         <v>94</v>
       </c>
       <c r="B79">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C79">
         <v>0.6</v>
@@ -5323,19 +5323,19 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G79">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K79">
         <v>0.5</v>
@@ -5367,7 +5367,7 @@
         <v>95</v>
       </c>
       <c r="B80">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C80">
         <v>0.6</v>
@@ -5379,19 +5379,19 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G80">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K80">
         <v>0.5</v>
@@ -5423,7 +5423,7 @@
         <v>96</v>
       </c>
       <c r="B81">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C81">
         <v>0.6</v>
@@ -5435,19 +5435,19 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K81">
         <v>0.5</v>
@@ -5479,7 +5479,7 @@
         <v>97</v>
       </c>
       <c r="B82">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C82">
         <v>0.6</v>
@@ -5491,19 +5491,19 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G82">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K82">
         <v>0.5</v>
@@ -5535,7 +5535,7 @@
         <v>98</v>
       </c>
       <c r="B83">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C83">
         <v>0.6</v>
@@ -5547,19 +5547,19 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K83">
         <v>0.5</v>
@@ -5591,7 +5591,7 @@
         <v>99</v>
       </c>
       <c r="B84">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C84">
         <v>0.6</v>
@@ -5603,19 +5603,19 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G84">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K84">
         <v>0.5</v>
@@ -5647,7 +5647,7 @@
         <v>100</v>
       </c>
       <c r="B85">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C85">
         <v>0.6</v>
@@ -5659,19 +5659,19 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G85">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K85">
         <v>0.5</v>
@@ -5703,7 +5703,7 @@
         <v>101</v>
       </c>
       <c r="B86">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C86">
         <v>0.6</v>
@@ -5715,19 +5715,19 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K86">
         <v>0.5</v>
@@ -5759,7 +5759,7 @@
         <v>102</v>
       </c>
       <c r="B87">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C87">
         <v>0.6</v>
@@ -5771,19 +5771,19 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K87">
         <v>0.5</v>
@@ -5815,7 +5815,7 @@
         <v>103</v>
       </c>
       <c r="B88">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C88">
         <v>0.6</v>
@@ -5827,19 +5827,19 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K88">
         <v>0.5</v>
@@ -5871,7 +5871,7 @@
         <v>104</v>
       </c>
       <c r="B89">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C89">
         <v>0.6</v>
@@ -5883,19 +5883,19 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K89">
         <v>0.5</v>
@@ -5927,7 +5927,7 @@
         <v>105</v>
       </c>
       <c r="B90">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C90">
         <v>0.2</v>
@@ -5939,19 +5939,19 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G90">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K90">
         <v>0.5</v>
@@ -5983,7 +5983,7 @@
         <v>106</v>
       </c>
       <c r="B91">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C91">
         <v>0.2</v>
@@ -5995,19 +5995,19 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K91">
         <v>0.5</v>
@@ -6039,7 +6039,7 @@
         <v>107</v>
       </c>
       <c r="B92">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -6051,19 +6051,19 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G92">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K92">
         <v>0.25</v>
@@ -6095,7 +6095,7 @@
         <v>108</v>
       </c>
       <c r="B93">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -6107,19 +6107,19 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G93">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K93">
         <v>0.25</v>
@@ -6151,7 +6151,7 @@
         <v>109</v>
       </c>
       <c r="B94">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -6163,19 +6163,19 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G94">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K94">
         <v>0.25</v>
@@ -6207,7 +6207,7 @@
         <v>110</v>
       </c>
       <c r="B95">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -6231,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K95">
         <v>0.25</v>
@@ -6263,7 +6263,7 @@
         <v>111</v>
       </c>
       <c r="B96">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -6275,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K96">
         <v>0.25</v>
@@ -6319,7 +6319,7 @@
         <v>112</v>
       </c>
       <c r="B97">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -6331,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -6343,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K97">
         <v>0.25</v>
@@ -6375,7 +6375,7 @@
         <v>113</v>
       </c>
       <c r="B98">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -6387,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -6399,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K98">
         <v>0.25</v>
@@ -6431,7 +6431,7 @@
         <v>114</v>
       </c>
       <c r="B99">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -6443,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K99">
         <v>0.25</v>
@@ -6487,7 +6487,7 @@
         <v>115</v>
       </c>
       <c r="B100">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -6499,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -6511,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K100">
         <v>0.25</v>
@@ -6543,7 +6543,7 @@
         <v>116</v>
       </c>
       <c r="B101">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -6567,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K101">
         <v>0.25</v>
@@ -6599,7 +6599,7 @@
         <v>117</v>
       </c>
       <c r="B102">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -6623,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K102">
         <v>0.25</v>
@@ -6655,7 +6655,7 @@
         <v>118</v>
       </c>
       <c r="B103">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -6667,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -6679,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K103">
         <v>0.25</v>
@@ -6711,7 +6711,7 @@
         <v>119</v>
       </c>
       <c r="B104">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -6723,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K104">
         <v>0.25</v>
@@ -6767,7 +6767,7 @@
         <v>120</v>
       </c>
       <c r="B105">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -6791,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K105">
         <v>0.25</v>
@@ -6823,7 +6823,7 @@
         <v>121</v>
       </c>
       <c r="B106">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K106">
         <v>0.25</v>
@@ -6879,7 +6879,7 @@
         <v>122</v>
       </c>
       <c r="B107">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K107">
         <v>0.25</v>
@@ -6935,7 +6935,7 @@
         <v>123</v>
       </c>
       <c r="B108">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -6959,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K108">
         <v>0.25</v>
